--- a/Project_Management/Sprint6/Burndown chart.xlsx
+++ b/Project_Management/Sprint6/Burndown chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catarinapedroso/Documents/FCT/2324/ES/sprints/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catarinapedroso/Desktop/projES1/Project_Management/Sprint6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FFF34D-37AC-AF40-BA11-45491A8B0B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330180D7-D992-E540-88FF-E4BB2EC87144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{CDDA1405-DE06-F94E-A582-CA9F20208D85}"/>
   </bookViews>
@@ -263,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -273,22 +273,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -302,25 +286,40 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -421,7 +420,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'[1]Burndown Chart'!$B$12:$C$12</c:f>
+              <c:f>Sheet1!$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -532,7 +531,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'[1]Burndown Chart'!$B$13:$C$13</c:f>
+              <c:f>Sheet1!$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -567,7 +566,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'[1]Burndown Chart'!$D$5:$K$5</c:f>
+              <c:f>Sheet1!$D$5:$K$5</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -642,7 +641,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'[1]Burndown Chart'!$B$14:$C$14</c:f>
+              <c:f>Sheet1!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -665,7 +664,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'[1]Burndown Chart'!$D$5:$K$5</c:f>
+              <c:f>Sheet1!$D$5:$K$5</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -1635,16 +1634,19 @@
           <cell r="B12" t="str">
             <v>Completed Effort</v>
           </cell>
+          <cell r="C12"/>
         </row>
         <row r="13">
           <cell r="B13" t="str">
             <v>Remaining Effort</v>
           </cell>
+          <cell r="C13"/>
         </row>
         <row r="14">
           <cell r="B14" t="str">
             <v>Ideal Burndown</v>
           </cell>
+          <cell r="C14"/>
         </row>
       </sheetData>
     </sheetDataSet>
@@ -1949,9 +1951,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3945B498-97B7-C747-97D8-276D28614BD0}">
-  <dimension ref="B1:L14"/>
+  <dimension ref="B1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -1963,101 +1965,101 @@
     <col min="5" max="11" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="4" t="s">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="5">
         <v>45248</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="5">
         <v>45249</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="5">
         <v>45250</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="5">
         <v>45251</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="5">
         <v>45252</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="5">
         <v>45253</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="5">
         <v>45254</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10" t="s">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="B6" s="12">
+    <row r="6" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" s="6">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="7">
         <v>5</v>
       </c>
       <c r="E6" s="2"/>
@@ -2074,14 +2076,14 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="B7" s="12">
+    <row r="7" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B7" s="6">
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="7">
         <v>1</v>
       </c>
       <c r="E7" s="2"/>
@@ -2098,14 +2100,14 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="B8" s="12">
+    <row r="8" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B8" s="6">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="7">
         <v>1</v>
       </c>
       <c r="E8" s="2"/>
@@ -2118,14 +2120,14 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="B9" s="12">
+    <row r="9" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B9" s="6">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="7">
         <v>2</v>
       </c>
       <c r="E9" s="2"/>
@@ -2142,14 +2144,14 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="B10" s="12">
+    <row r="10" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B10" s="6">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="7">
         <v>4</v>
       </c>
       <c r="E10" s="2"/>
@@ -2164,14 +2166,14 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="B11" s="12">
+    <row r="11" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B11" s="6">
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="7">
         <v>1.5</v>
       </c>
       <c r="E11" s="2"/>
@@ -2186,116 +2188,115 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="14" t="s">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15">
+      <c r="C12" s="18"/>
+      <c r="D12" s="8">
         <v>0</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="8">
         <f t="shared" ref="E12:K12" si="0">SUM(E6:E11)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="8">
         <f t="shared" si="0"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="8">
         <f t="shared" si="0"/>
         <v>3.4000000000000004</v>
       </c>
-      <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="16" t="s">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17">
+      <c r="C13" s="19"/>
+      <c r="D13" s="9">
         <f>SUM(D6:D12)</f>
         <v>14.5</v>
       </c>
       <c r="E13" s="3">
-        <f>D13-E12</f>
+        <f t="shared" ref="E13:K13" si="1">D13-E12</f>
         <v>14.5</v>
       </c>
       <c r="F13" s="3">
-        <f>E13-F12</f>
+        <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
       <c r="G13" s="3">
-        <f>F13-G12</f>
+        <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
       <c r="H13" s="3">
-        <f>G13-H12</f>
+        <f t="shared" si="1"/>
         <v>11.5</v>
       </c>
       <c r="I13" s="3">
-        <f>H13-I12</f>
+        <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
       <c r="J13" s="3">
-        <f>I13-J12</f>
+        <f t="shared" si="1"/>
         <v>9.6</v>
       </c>
       <c r="K13" s="3">
-        <f>J13-K12</f>
+        <f t="shared" si="1"/>
         <v>6.1999999999999993</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19">
+      <c r="C14" s="12"/>
+      <c r="D14" s="10">
         <f>D13</f>
         <v>14.5</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="11">
         <f>$D$14-($D$14/7*1)</f>
         <v>12.428571428571429</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="11">
         <f>$D$14-($D$14/7*2)</f>
         <v>10.357142857142858</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="11">
         <f>$D$14-($D$14/7*3)</f>
         <v>8.2857142857142847</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="11">
         <f>$D$14-($D$14/7*4)</f>
         <v>6.2142857142857135</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="11">
         <f>$D$14-($D$14/7*5)</f>
         <v>4.1428571428571423</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="11">
         <f>$D$14-($D$14/7*6)</f>
         <v>2.0714285714285694</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="11">
         <f>$D$14-($D$14/7*7)</f>
         <v>0</v>
       </c>
